--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_고구려.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_고구려.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>고구려 건국
-1. 414년 : 장수왕
-2. -37년 : 동명왕
-3. 595년 : 영양왕</t>
+1. 642년 : 보장왕
+2. 371년 : 소수림왕
+3. -37년 : 동명왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, -37년 : 동명왕</t>
+          <t>3, -37년 : 동명왕</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>고구려 국내성 천도
-1. 3년 : 유리왕
-2. 668년 : 멸망
-3. 494년 : 문자왕</t>
+1. 414년 : 장수왕
+2. 3년 : 유리왕
+3. 371년 : 소수림왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 3년 : 유리왕</t>
+          <t>2, 3년 : 유리왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>고구려 진대법 도입
-1. 638년 : 영류왕
-2. 194년 : 고국천왕
-3. 609년 : 영양왕</t>
+1. 194년 : 고국천왕
+2. 612년 : 영양왕
+3. 586년 : 영양왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 194년 : 고국천왕</t>
+          <t>1, 194년 : 고국천왕</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>고구려의 위나라 서안평 침공
-1. 3년 : 유리왕
-2. 242년 : 동천왕
-3. 586년 : 영양왕</t>
+1. 479년 : 장수왕
+2. 668년 : 멸망
+3. 242년 : 동천왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 242년 : 동천왕</t>
+          <t>3, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>위나라 관구검의 고구려 침입
-1. 242년 : 동천왕
-2. 371년 : 소수림왕
-3. 396년 : 광개토대왕</t>
+1. 475년 : 장수왕
+2. 638년 : 영류왕
+3. 242년 : 동천왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 242년 : 동천왕</t>
+          <t>3, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>고구려 낙랑군 대방군 축출
-1. 194년 : 고국천왕
-2. 371년 : 소수림왕
+1. 667년 : 보장왕
+2. 400년 : 광개토대왕
 3. 314년 : 미천왕</t>
         </is>
       </c>
@@ -540,8 +540,8 @@
         <is>
           <t>전연의 고구려 침입
 1. 342년 : 고국원왕
-2. 414년 : 장수왕
-3. 242년 : 동천왕</t>
+2. 194년 : 고국천왕
+3. 400년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>고구려 전진과 수교
-1. 400년 : 광개토대왕
-2. 371년 : 소수림왕
-3. 396년 : 광개토대왕</t>
+1. 371년 : 소수림왕
+2. 342년 : 고국원왕
+3. 494년 : 문자왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 371년 : 소수림왕</t>
+          <t>1, 371년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>고구려 태학 설립
-1. 372년 : 소수림왕
-2. 668년 : 멸망
+1. 371년 : 소수림왕
+2. 372년 : 소수림왕
 3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1, 372년 : 소수림왕</t>
+          <t>2, 372년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>전진의 순도 고구려에 불교 전래
-1. 598년 : 영양왕
-2. 595년 : 영양왕
-3. 372년 : 소수림왕</t>
+1. 427년 : 장수왕
+2. 372년 : 소수림왕
+3. 242년 : 동천왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 372년 : 소수림왕</t>
+          <t>2, 372년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>고구려 율령 반포
-1. 400년 : 광개토대왕
-2. 373년 : 소수림왕
-3. 612년 : 영양왕</t>
+1. 373년 : 소수림왕
+2. 371년 : 소수림왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 373년 : 소수림왕</t>
+          <t>1, 373년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -614,8 +614,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>고구려 연호 영락 사용
-1. 595년 : 영양왕
-2. 609년 : 영양왕
+1. 612년 : 영류왕
+2. 642년 : 보장왕
 3. 391년 : 광개토대왕</t>
         </is>
       </c>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>백제 아신왕 고구려에 항복
-1. 396년 : 광개토대왕
-2. 427년 : 장수왕
-3. 609년 : 영양왕</t>
+1. 242년 : 동천왕
+2. 396년 : 광개토대왕
+3. 194년 : 고국천왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 396년 : 광개토대왕</t>
+          <t>2, 396년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>전기 가야연맹 몰락
-1. 400년 : 광개토대왕
-2. 638년 : 영류왕
-3. -37년 : 동명왕</t>
+1. 372년 : 소수림왕
+2. 400년 : 광개토대왕
+3. 371년 : 소수림왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 400년 : 광개토대왕</t>
+          <t>2, 400년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>고구려 동예 통합
-1. 410년 : 광개토대왕
-2. 414년 : 장수왕
-3. 612년 : 영양왕</t>
+1. 314년 : 미천왕
+2. 624년 : 영류왕
+3. 410년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 410년 : 광개토대왕</t>
+          <t>3, 410년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -674,9 +674,9 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>고구려 광개토대왕릉비 건립
-1. 427년 : 장수왕
+1. 645년 : 보장왕
 2. 414년 : 장수왕
-3. 372년 : 소수림왕</t>
+3. 479년 : 장수왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -689,8 +689,8 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>고구려 평양성 천도
-1. -37년 : 동명왕
-2. 645년 : 보장왕
+1. 242년 : 동천왕
+2. 643년 : 보장왕
 3. 427년 : 장수왕</t>
         </is>
       </c>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>백제 수도 위례성 함락 개로왕 전사
-1. 396년 : 광개토대왕
-2. 414년 : 장수왕
-3. 475년 : 장수왕</t>
+1. 475년 : 장수왕
+2. 668년 : 멸망
+3. 373년 : 소수림왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 475년 : 장수왕</t>
+          <t>1, 475년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>고구려 거란 흥안령 일대 장악
-1. 427년 : 장수왕
-2. 479년 : 장수왕
-3. 372년 : 소수림왕</t>
+1. -37년 : 동명왕
+2. 668년 : 멸망
+3. 479년 : 장수왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 479년 : 장수왕</t>
+          <t>3, 479년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -735,8 +735,8 @@
         <is>
           <t>고구려 부여 복속
 1. 494년 : 문자왕
-2. 667년 : 보장왕
-3. 371년 : 소수림왕</t>
+2. 194년 : 고국천왕
+3. 475년 : 장수왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>고구려 온달 신라 아단성에서 전사
-1. 414년 : 장수왕
+1. 586년 : 영양왕
 2. 642년 : 보장왕
-3. 586년 : 영양왕</t>
+3. 342년 : 고국원왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 586년 : 영양왕</t>
+          <t>1, 586년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -764,9 +764,9 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>고구려 혜자 일본 태자의 스승 파견
-1. 645년 : 보장왕
+1. 342년 : 고국원왕
 2. 590년 : 영양왕
-3. 314년 : 미천왕</t>
+3. 595년 : 영양왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>고구려 수나라 요서지방 선제 공격
-1. 595년 : 영양왕
-2. 643년 : 보장왕
-3. 667년 : 보장왕</t>
+1. 373년 : 소수림왕
+2. 595년 : 영양왕
+3. 645년 : 보장왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 595년 : 영양왕</t>
+          <t>2, 595년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -794,8 +794,8 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>수 문제의 고구려 1차 침입
-1. 645년 : 보장왕
-2. 642년 : 보장왕
+1. 609년 : 영양왕
+2. 373년 : 소수림왕
 3. 598년 : 영양왕</t>
         </is>
       </c>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>고구려 이문진 신집 5권 편찬
-1. 598년 : 영양왕
-2. 371년 : 소수림왕
-3. 595년 : 영</t>
+1. 647년 : 보장왕
+2. 598년 : 영양왕
+3. 400년 : 광개</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 598년 : 영양왕</t>
+          <t>2, 598년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>고구려 담징 일본에 종이 먹 제조법 전래
-1. 624년 : 영류왕
+1. 643년 : 보장왕
 2. 609년 : 영양왕
-3. 400년 : 광개토대왕</t>
+3. 612년 : 영류왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>수 양제의 고구려 2차 침입 및 살수대첩
-1. 373년 : 소수림왕
-2. 612년 : 영양왕
-3. 427년 : 장수왕</t>
+1. 612년 : 영양왕
+2. 391년 : 광개토대왕
+3. 590년 : 영양왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 612년 : 영양왕</t>
+          <t>1, 612년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -855,8 +855,8 @@
         <is>
           <t>고구려 당으로부터 도교 수용
 1. 612년 : 영류왕
-2. 624년 : 영류왕
-3. 391년 : 광개토대왕</t>
+2. 373년 : 소수림왕
+3. 590년 : 영양왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>고구려 천리장성 축조 시작
-1. 586년 : 영양왕
-2. 624년 : 영류왕
-3. 242년 : 동천왕</t>
+1. 647년 : 보장왕
+2. 638년 : 영류왕
+3. 624년 : 영류왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 624년 : 영류왕</t>
+          <t>3, 624년 : 영류왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>고구려 연개소문의 정변
-1. 598년 : 영양왕
-2. 638년 : 영류왕
-3. -37년 : 동명왕</t>
+1. 624년 : 영류왕
+2. 642년 : 보장왕
+3. 638년 : 영류왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 638년 : 영류왕</t>
+          <t>3, 638년 : 영류왕</t>
         </is>
       </c>
     </row>
@@ -899,8 +899,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>고구려 연개소문의 도교 도입 및 장려
-1. 396년 : 광개토대왕
-2. 314년 : 미천왕
+1. 427년 : 장수왕
+2. 647년 : 보장왕
 3. 642년 : 보장왕</t>
         </is>
       </c>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>당 태종의 고구려 침입
-1. 643년 : 보장왕
-2. 668년 : 멸망
-3. 479년 : 장수왕</t>
+1. 314년 : 미천왕
+2. 3년 : 유리왕
+3. 643년 : 보장왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 643년 : 보장왕</t>
+          <t>3, 643년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>고구려 양만춘 안시성 전투 활약
-1. 612년 : 영양왕
-2. 645년 : 보장왕
-3. 494년 : 문자왕</t>
+1. 371년 : 소수림왕
+2. 400년 : 광개토대왕
+3. 645년 : 보장왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 645년 : 보장왕</t>
+          <t>3, 645년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>고구려 천리장성 완성
-1. 647년 : 보장왕
-2. 624년 : 영류왕
-3. 391년 : 광개토대왕</t>
+1. 242년 : 동천왕
+2. 647년 : 보장왕
+3. 373년 : 소수림왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 647년 : 보장왕</t>
+          <t>2, 647년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>고구려 멸망
-1. 612년 : 영류왕
-2. 667년 : 보장왕
-3. 624년 : 영류왕</t>
+1. 373년 : 소수림왕
+2. 410년 : 광개토대왕
+3. 667년 : 보장왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 667년 : 보장왕</t>
+          <t>3, 667년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>당의 안동도호부 설치
-1. 638년 : 영류왕
-2. 668년 : 멸망
-3. -37년 : 동명왕</t>
+1. 612년 : 영양왕
+2. 494년 : 문자왕
+3. 668년 : 멸망</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2, 668년 : 멸망</t>
+          <t>3, 668년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>고구려 부흥 운동
-1. 667년 : 보장왕
-2. 371년 : 소수림왕
-3. 668년 : 멸망</t>
+1. 612년 : 영양왕
+2. 668년 : 멸망
+3. 475년 : 장수왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3, 668년 : 멸망</t>
+          <t>2, 668년 : 멸망</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_고구려.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_고구려.xlsx
@@ -449,8 +449,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>고구려 건국
-1. 642년 : 보장왕
-2. 371년 : 소수림왕
+1. 479년 : 장수왕
+2. 668년 : 멸망
 3. -37년 : 동명왕</t>
         </is>
       </c>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>고구려 국내성 천도
-1. 414년 : 장수왕
+1. 612년 : 영양왕
 2. 3년 : 유리왕
-3. 371년 : 소수림왕</t>
+3. 586년 : 영양왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,8 +480,8 @@
         <is>
           <t>고구려 진대법 도입
 1. 194년 : 고국천왕
-2. 612년 : 영양왕
-3. 586년 : 영양왕</t>
+2. 373년 : 소수림왕
+3. 494년 : 문자왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>고구려의 위나라 서안평 침공
-1. 479년 : 장수왕
-2. 668년 : 멸망
-3. 242년 : 동천왕</t>
+1. 242년 : 동천왕
+2. 609년 : 영양왕
+3. 642년 : 보장왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 242년 : 동천왕</t>
+          <t>1, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>위나라 관구검의 고구려 침입
-1. 475년 : 장수왕
-2. 638년 : 영류왕
-3. 242년 : 동천왕</t>
+1. 645년 : 보장왕
+2. 242년 : 동천왕
+3. 668년 : 멸망</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 242년 : 동천왕</t>
+          <t>2, 242년 : 동천왕</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>고구려 낙랑군 대방군 축출
-1. 667년 : 보장왕
-2. 400년 : 광개토대왕
+1. 372년 : 소수림왕
+2. 586년 : 영양왕
 3. 314년 : 미천왕</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>전연의 고구려 침입
-1. 342년 : 고국원왕
-2. 194년 : 고국천왕
-3. 400년 : 광개토대왕</t>
+1. 586년 : 영양왕
+2. 624년 : 영류왕
+3. 342년 : 고국원왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 342년 : 고국원왕</t>
+          <t>3, 342년 : 고국원왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>고구려 전진과 수교
-1. 371년 : 소수림왕
-2. 342년 : 고국원왕
-3. 494년 : 문자왕</t>
+1. 590년 : 영양왕
+2. 396년 : 광개토대왕
+3. 371년 : 소수림왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 371년 : 소수림왕</t>
+          <t>3, 371년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -569,9 +569,9 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>고구려 태학 설립
-1. 371년 : 소수림왕
+1. 609년 : 영양왕
 2. 372년 : 소수림왕
-3. 609년 : 영양왕</t>
+3. 642년 : 보장왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>전진의 순도 고구려에 불교 전래
-1. 427년 : 장수왕
-2. 372년 : 소수림왕
-3. 242년 : 동천왕</t>
+1. 479년 : 장수왕
+2. 475년 : 장수왕
+3. 372년 : 소수림왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2, 372년 : 소수림왕</t>
+          <t>3, 372년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>고구려 율령 반포
-1. 373년 : 소수림왕
-2. 371년 : 소수림왕
-3. 414년 : 장수왕</t>
+1. 400년 : 광개토대왕
+2. 391년 : 광개토대왕
+3. 373년 : 소수림왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 373년 : 소수림왕</t>
+          <t>3, 373년 : 소수림왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>고구려 연호 영락 사용
-1. 612년 : 영류왕
-2. 642년 : 보장왕
-3. 391년 : 광개토대왕</t>
+1. 3년 : 유리왕
+2. 391년 : 광개토대왕
+3. 642년 : 보장왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 391년 : 광개토대왕</t>
+          <t>2, 391년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>백제 아신왕 고구려에 항복
-1. 242년 : 동천왕
+1. 645년 : 보장왕
 2. 396년 : 광개토대왕
-3. 194년 : 고국천왕</t>
+3. 400년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>전기 가야연맹 몰락
-1. 372년 : 소수림왕
-2. 400년 : 광개토대왕
-3. 371년 : 소수림왕</t>
+1. 3년 : 유리왕
+2. -37년 : 동명왕
+3. 400년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 400년 : 광개토대왕</t>
+          <t>3, 400년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>고구려 동예 통합
-1. 314년 : 미천왕
-2. 624년 : 영류왕
-3. 410년 : 광개토대왕</t>
+1. 410년 : 광개토대왕
+2. 590년 : 영양왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3, 410년 : 광개토대왕</t>
+          <t>1, 410년 : 광개토대왕</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>고구려 광개토대왕릉비 건립
-1. 645년 : 보장왕
-2. 414년 : 장수왕
-3. 479년 : 장수왕</t>
+1. 609년 : 영양왕
+2. 645년 : 보장왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 414년 : 장수왕</t>
+          <t>3, 414년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>고구려 평양성 천도
-1. 242년 : 동천왕
-2. 643년 : 보장왕
-3. 427년 : 장수왕</t>
+1. 427년 : 장수왕
+2. 314년 : 미천왕
+3. 242년 : 동천왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 427년 : 장수왕</t>
+          <t>1, 427년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>백제 수도 위례성 함락 개로왕 전사
-1. 475년 : 장수왕
-2. 668년 : 멸망
-3. 373년 : 소수림왕</t>
+1. 3년 : 유리왕
+2. 475년 : 장수왕
+3. 667년 : 보장왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 475년 : 장수왕</t>
+          <t>2, 475년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>고구려 거란 흥안령 일대 장악
-1. -37년 : 동명왕
-2. 668년 : 멸망
-3. 479년 : 장수왕</t>
+1. 479년 : 장수왕
+2. 595년 : 영양왕
+3. 372년 : 소수림왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 479년 : 장수왕</t>
+          <t>1, 479년 : 장수왕</t>
         </is>
       </c>
     </row>
@@ -735,8 +735,8 @@
         <is>
           <t>고구려 부여 복속
 1. 494년 : 문자왕
-2. 194년 : 고국천왕
-3. 475년 : 장수왕</t>
+2. 667년 : 보장왕
+3. 391년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>고구려 온달 신라 아단성에서 전사
-1. 586년 : 영양왕
-2. 642년 : 보장왕
-3. 342년 : 고국원왕</t>
+1. 609년 : 영양왕
+2. 586년 : 영양왕
+3. 598년 : 영양왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 586년 : 영양왕</t>
+          <t>2, 586년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>고구려 혜자 일본 태자의 스승 파견
-1. 342년 : 고국원왕
-2. 590년 : 영양왕
-3. 595년 : 영양왕</t>
+1. 624년 : 영류왕
+2. 598년 : 영양왕
+3. 590년 : 영양왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 590년 : 영양왕</t>
+          <t>3, 590년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>고구려 수나라 요서지방 선제 공격
-1. 373년 : 소수림왕
-2. 595년 : 영양왕
-3. 645년 : 보장왕</t>
+1. 595년 : 영양왕
+2. 612년 : 영양왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 595년 : 영양왕</t>
+          <t>1, 595년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>수 문제의 고구려 1차 침입
-1. 609년 : 영양왕
-2. 373년 : 소수림왕
-3. 598년 : 영양왕</t>
+1. 598년 : 영양왕
+2. 642년 : 보장왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 598년 : 영양왕</t>
+          <t>1, 598년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>고구려 이문진 신집 5권 편찬
-1. 647년 : 보장왕
-2. 598년 : 영양왕
-3. 400년 : 광개</t>
+1. 612년 : 영양왕
+2. 647년 : 보장왕
+3. 598년 : 영양왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 598년 : 영양왕</t>
+          <t>3, 598년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>고구려 담징 일본에 종이 먹 제조법 전래
-1. 643년 : 보장왕
-2. 609년 : 영양왕
-3. 612년 : 영류왕</t>
+1. 396년 : 광개토대왕
+2. 586년 : 영양왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 609년 : 영양왕</t>
+          <t>3, 609년 : 영양왕</t>
         </is>
       </c>
     </row>
@@ -840,8 +840,8 @@
         <is>
           <t>수 양제의 고구려 2차 침입 및 살수대첩
 1. 612년 : 영양왕
-2. 391년 : 광개토대왕
-3. 590년 : 영양왕</t>
+2. 314년 : 미천왕
+3. 414년 : 장수왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -855,8 +855,8 @@
         <is>
           <t>고구려 당으로부터 도교 수용
 1. 612년 : 영류왕
-2. 373년 : 소수림왕
-3. 590년 : 영양왕</t>
+2. 414년 : 장수왕
+3. 609년 : 영양왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>고구려 천리장성 축조 시작
-1. 647년 : 보장왕
-2. 638년 : 영류왕
-3. 624년 : 영류왕</t>
+1. 612년 : 영양왕
+2. 624년 : 영류왕
+3. 475년 : 장수왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 624년 : 영류왕</t>
+          <t>2, 624년 : 영류왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>고구려 연개소문의 정변
-1. 624년 : 영류왕
-2. 642년 : 보장왕
-3. 638년 : 영류왕</t>
+1. 595년 : 영양왕
+2. 638년 : 영류왕
+3. 400년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 638년 : 영류왕</t>
+          <t>2, 638년 : 영류왕</t>
         </is>
       </c>
     </row>
@@ -899,8 +899,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>고구려 연개소문의 도교 도입 및 장려
-1. 427년 : 장수왕
-2. 647년 : 보장왕
+1. 612년 : 영양왕
+2. 194년 : 고국천왕
 3. 642년 : 보장왕</t>
         </is>
       </c>
@@ -914,8 +914,8 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>당 태종의 고구려 침입
-1. 314년 : 미천왕
-2. 3년 : 유리왕
+1. 373년 : 소수림왕
+2. 342년 : 고국원왕
 3. 643년 : 보장왕</t>
         </is>
       </c>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>고구려 양만춘 안시성 전투 활약
-1. 371년 : 소수림왕
-2. 400년 : 광개토대왕
-3. 645년 : 보장왕</t>
+1. 242년 : 동천왕
+2. 645년 : 보장왕
+3. 391년 : 광개토대왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 645년 : 보장왕</t>
+          <t>2, 645년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>고구려 천리장성 완성
-1. 242년 : 동천왕
-2. 647년 : 보장왕
-3. 373년 : 소수림왕</t>
+1. 647년 : 보장왕
+2. 194년 : 고국천왕
+3. 427년 : 장수왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2, 647년 : 보장왕</t>
+          <t>1, 647년 : 보장왕</t>
         </is>
       </c>
     </row>
@@ -959,8 +959,8 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>고구려 멸망
-1. 373년 : 소수림왕
-2. 410년 : 광개토대왕
+1. 427년 : 장수왕
+2. 612년 : 영류왕
 3. 667년 : 보장왕</t>
         </is>
       </c>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>당의 안동도호부 설치
-1. 612년 : 영양왕
-2. 494년 : 문자왕
-3. 668년 : 멸망</t>
+1. 342년 : 고국원왕
+2. 668년 : 멸망
+3. 638년 : 영류왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 668년 : 멸망</t>
+          <t>2, 668년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>고구려 부흥 운동
-1. 612년 : 영양왕
-2. 668년 : 멸망
-3. 475년 : 장수왕</t>
+1. 668년 : 멸망
+2. 647년 : 보장왕
+3. 598년 : 영양왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 668년 : 멸망</t>
+          <t>1, 668년 : 멸망</t>
         </is>
       </c>
     </row>
